--- a/optimization_nirs_HIE_grading.xlsx
+++ b/optimization_nirs_HIE_grading.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhysioUser\OneDrive - University College Cork\Monitor\Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433967EF-EB0B-46C4-99AB-8AB6DF3B2A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C0F7AF-1A60-4008-BC3C-F67181007D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>AUC</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>n_estimator</t>
+  </si>
+  <si>
+    <t>used for the paper</t>
   </si>
 </sst>
 </file>
@@ -888,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G271"/>
+  <dimension ref="A1:H271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,7 +903,7 @@
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -923,7 +926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.77216563786008197</v>
       </c>
@@ -946,7 +949,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.77083333333333304</v>
       </c>
@@ -969,7 +972,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.769655349794238</v>
       </c>
@@ -992,7 +995,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.76940843621399102</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.76868312757201596</v>
       </c>
@@ -1038,7 +1041,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.76638374485596705</v>
       </c>
@@ -1061,7 +1064,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.76563786008230394</v>
       </c>
@@ -1084,7 +1087,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.76456790123456697</v>
       </c>
@@ -1107,7 +1110,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.76416666666666599</v>
       </c>
@@ -1130,7 +1133,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.76412037037036995</v>
       </c>
@@ -1153,7 +1156,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.76300411522633704</v>
       </c>
@@ -1175,8 +1178,11 @@
       <c r="G12" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.76259259259259204</v>
       </c>
@@ -1199,7 +1205,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.76194958847736605</v>
       </c>
@@ -1222,7 +1228,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.76180555555555496</v>
       </c>
@@ -1245,7 +1251,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.76150205761316803</v>
       </c>
